--- a/REVER_DailyTracker_20200731.xlsx
+++ b/REVER_DailyTracker_20200731.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA19E3DD-6EB9-4A3A-A271-D31C9B421E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -70,19 +76,21 @@
   <si>
     <t>Regression testing on B2C and B2B app</t>
   </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conversion completed . DB need to merge from other developer </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,155 +124,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,7 +143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,188 +165,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -531,262 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -824,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -845,63 +287,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="標準 2" xfId="39"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1159,27 +561,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="104.714285714286" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1203,7 +605,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" s="24" customFormat="1" ht="28.9" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -1221,23 +623,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1268,29 +670,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="72.5714285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1358,21 +758,21 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="20" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="20" spans="2:3">
       <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1403,29 +803,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1469,23 +867,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1516,29 +914,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1564,18 +960,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:7">
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="30">
+        <v>44043</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:7">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1586,23 +988,23 @@
       <c r="F3" s="7"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1633,29 +1035,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1699,23 +1099,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,29 +1146,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1812,23 +1210,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1859,29 +1257,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1916,21 +1312,21 @@
       <c r="F2" s="22"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="19" spans="3:3">
+    <row r="3" spans="1:7" s="1" customFormat="1"/>
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="19" spans="2:3">
       <c r="C19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1961,29 +1357,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2027,23 +1421,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2074,29 +1468,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2140,23 +1532,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2187,29 +1579,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2253,23 +1643,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2300,29 +1690,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="44.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="48.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2366,23 +1754,23 @@
       <c r="F3" s="8"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="22" spans="3:3">
+    <row r="4" spans="1:7" s="1" customFormat="1"/>
+    <row r="5" spans="1:7" s="1" customFormat="1"/>
+    <row r="6" spans="1:7" s="1" customFormat="1"/>
+    <row r="7" spans="1:7" s="1" customFormat="1"/>
+    <row r="8" spans="1:7" s="1" customFormat="1"/>
+    <row r="9" spans="1:7" s="1" customFormat="1"/>
+    <row r="10" spans="1:7" s="1" customFormat="1"/>
+    <row r="11" spans="1:7" s="1" customFormat="1"/>
+    <row r="12" spans="1:7" s="1" customFormat="1"/>
+    <row r="13" spans="1:7" s="1" customFormat="1"/>
+    <row r="14" spans="1:7" s="1" customFormat="1"/>
+    <row r="15" spans="1:7" s="1" customFormat="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1"/>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1"/>
+    <row r="19" spans="2:3" s="1" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="9" t="s">
         <v>5</v>
       </c>
@@ -2413,7 +1801,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/REVER_DailyTracker_20200731.xlsx
+++ b/REVER_DailyTracker_20200731.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA19E3DD-6EB9-4A3A-A271-D31C9B421E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAEE156-5BF8-4E7F-A139-5AEED1693C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t xml:space="preserve">Conversion completed . DB need to merge from other developer </t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vastu </t>
+  </si>
+  <si>
+    <t>Vastu tips  design</t>
   </si>
 </sst>
 </file>
@@ -573,15 +582,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -605,7 +614,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -682,15 +691,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -815,15 +824,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -922,19 +931,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -977,7 +986,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1047,15 +1056,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1158,15 +1167,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1269,15 +1278,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1369,15 +1378,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1480,15 +1489,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1587,19 +1596,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1626,12 +1635,24 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1702,15 +1723,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200731.xlsx
+++ b/REVER_DailyTracker_20200731.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A5A580-6D06-4CBA-8FF0-217D943E378E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BF2C4-446E-4AC0-8E56-2EB78DDF8EA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="102">
   <si>
     <t>Task</t>
   </si>
@@ -385,6 +379,12 @@
     <t>1. GRS-Details received for data validation in CSV file with GSPN data and tested in all SSCs and downloading and uploading 
 with exact data
 2. Working on Password management is work in progress</t>
+  </si>
+  <si>
+    <t>RPA</t>
+  </si>
+  <si>
+    <t>Creditinfo -updated table to get last column value</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+    <sheetView topLeftCell="A202" workbookViewId="0">
       <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
@@ -1922,8 +1922,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1963,9 +1963,15 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
